--- a/_pages/下書き/星の王子さま/対訳.xlsx
+++ b/_pages/下書き/星の王子さま/対訳.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosug\Dropbox\個人\趣味\言語創作\GitHub\fonel\_pages\下書き\星の王子さま\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2799E7CF-29F1-4231-B99E-2229699AE7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22163A2A-F363-46E8-A136-7BB47871DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1740" windowWidth="35895" windowHeight="14385" xr2:uid="{683600B2-5217-473C-9A1C-231664E0D430}"/>
+    <workbookView xWindow="345" yWindow="2985" windowWidth="35895" windowHeight="16710" xr2:uid="{683600B2-5217-473C-9A1C-231664E0D430}"/>
   </bookViews>
   <sheets>
     <sheet name="対訳" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>fonel</t>
   </si>
@@ -127,18 +127,12 @@
     <t>I think a lot about the adventures of the jungle</t>
   </si>
   <si>
-    <t>Et, à mon tour, moi réussir avec un crayon de couleur tracer mon premier dessin</t>
-  </si>
-  <si>
     <t>そして　自分の番で　私　成功する　色鉛筆で　描く　私の最初の絵</t>
   </si>
   <si>
     <t>And, in my turn, I succeed with a colored pencil to draw my first drawing</t>
   </si>
   <si>
-    <t>Mon dessin numéro un</t>
-  </si>
-  <si>
     <t>私の絵　番号1</t>
   </si>
   <si>
@@ -154,18 +148,12 @@
     <t>It is like that:</t>
   </si>
   <si>
-    <t>Moi montrer mon chef-d’œuvre aux grandes personnes</t>
-  </si>
-  <si>
     <t>私　見せる　私の傑作　大人たちに</t>
   </si>
   <si>
     <t>I show my masterpiece to the grown-ups</t>
   </si>
   <si>
-    <t>et moi demander à eux si mon dessin faire peur à eux</t>
-  </si>
-  <si>
     <t>そして　私　たずねる　彼らに　私の絵　怖がらせる　彼らを</t>
   </si>
   <si>
@@ -179,9 +167,6 @@
   </si>
   <si>
     <t>They answer me:</t>
-  </si>
-  <si>
-    <t>« Pourquoi un chapeau faire peur ? »</t>
   </si>
   <si>
     <t>「なぜ　帽子　怖がらせる？」</t>
@@ -342,6 +327,132 @@
   </si>
   <si>
     <t>et ce est fatigant pour les enfants de toujours leur donner de les explications</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Cã mwa avwar siz an</t>
+  </si>
+  <si>
+    <t>mwa vwar ün fois ün imaj mañific</t>
+  </si>
+  <si>
+    <t>dã ën livr ci parlé dë la Fòrè Vierge</t>
+  </si>
+  <si>
+    <t>et ci avwar pur nõ « Istwarz vécü »</t>
+  </si>
+  <si>
+    <t>Sëla réprézãté ën sèrpã bwa ci avalé ën fóv</t>
+  </si>
+  <si>
+    <t>Vwala la còpi dë lë désẽ</t>
+  </si>
+  <si>
+    <t>Lë désẽ réprézãté ën sèrpã bwa ci diyér ën fóv</t>
+  </si>
+  <si>
+    <t>Õ dir dã lë livr :</t>
+  </si>
+  <si>
+    <t>« Léz sèrpãz bwas avalé lêr prwa tout ãtyèr sãz maĉé</t>
+  </si>
+  <si>
+    <t>Ãsŷit, ils (në) puvwar plüz bujé</t>
+  </si>
+  <si>
+    <t>et ils dòrmir pãdã léz siz mwaz dë lêr digestion. »</t>
+  </si>
+  <si>
+    <t>Mwa réfléĉir bócu sür léz avãtür dë la jũgl"</t>
+  </si>
+  <si>
+    <t>et mwa dëmãdé a ö si mõ désẽ fèr pêr a ö</t>
+  </si>
+  <si>
+    <t>Öz répõdr a mwa :</t>
+  </si>
+  <si>
+    <t>« Purcwa ën chapeau fèr pêr ? »</t>
+  </si>
+  <si>
+    <t>Mõ désẽ (në) réprézãté pa ën chapeau</t>
+  </si>
+  <si>
+    <t>Il réprézãté ën sèrpã bwa ci diyér ën éléfã</t>
+  </si>
+  <si>
+    <t>Mwa désiné alors l’ẽtéryêr dë lë sèrpã bwa</t>
+  </si>
+  <si>
+    <t>afin cë léz grãdz personnes puvwar cõprãdr</t>
+  </si>
+  <si>
+    <t>Öz avwar tujur bëzwẽ dë ècsplicasyõ</t>
+  </si>
+  <si>
+    <t>Mõ désẽ nüméró deux ètr còm sëla :</t>
+  </si>
+  <si>
+    <t>Léz grãdz personnes cõsèyé a mwa</t>
+  </si>
+  <si>
+    <t>lèsé dë cóté léz désẽ dë sèrpãz bwas uvèrz ou fèrméz</t>
+  </si>
+  <si>
+    <t>et m’ẽtèrésé plütò a la yéògrafi, a l’istwar, au calcül et a la gramèr</t>
+  </si>
+  <si>
+    <t>Sè è ẽsi cë mwa abãdòné</t>
+  </si>
+  <si>
+    <t>a lë aj dë siz an ün caryèr mañific dë pẽtr</t>
+  </si>
+  <si>
+    <t>Mwa ètr décurayé par l’insuccès dë mõ désẽ nüméró ën</t>
+  </si>
+  <si>
+    <t>et dë mõ désẽ nüméró deux</t>
+  </si>
+  <si>
+    <t>Léz grãdz personnes (në) cõprãdr jamèz ryẽ toutes sêlz</t>
+  </si>
+  <si>
+    <t>et sè è fatigãn pur léz ãfã dë tujur lêr dòné dë léz ècsplicasyõz</t>
+  </si>
+  <si>
+    <t>« Pourquoi un chapeau faire peur ? »</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Et, a ën tur a mwa, mwa réüsir avèc ën crèyõ dë culêr trasé ën prëmyé désẽ a Mwa</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Un dessin numéro un à moi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Et, à un tour à moi, moi réussir avec un crayon de couleur tracer un premier dessin à moi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ën désẽ nüméró ũ a mwa</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>et moi demander à eux si mon dessin faire peur à eux</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Il ètr còm sëla :</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moi montrer un chef de œuvre à moi à les grandes personnes</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mwa mõtré ën chef dë êvr a mwa a lez grãdz pèrsòn</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -510,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,6 +799,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -935,12 +1058,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1300,7 +1429,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1328,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1342,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1356,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1370,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1384,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1395,10 +1524,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1412,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1426,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1440,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1454,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1465,24 +1594,24 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1492,311 +1621,311 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+        <v>135</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/_pages/下書き/星の王子さま/対訳.xlsx
+++ b/_pages/下書き/星の王子さま/対訳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosug\Dropbox\個人\趣味\言語創作\GitHub\fonel\_pages\下書き\星の王子さま\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22163A2A-F363-46E8-A136-7BB47871DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8E217-BE1E-417A-AB7E-7B457E76D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2985" windowWidth="35895" windowHeight="16710" xr2:uid="{683600B2-5217-473C-9A1C-231664E0D430}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>“Why does a hat make fear?”</t>
   </si>
   <si>
-    <t>Mon dessin ne représenter pas un chapeau</t>
-  </si>
-  <si>
     <t>私の絵　描かない　帽子を</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>They always have need of explanation</t>
   </si>
   <si>
-    <t>Mon dessin numéro deux être comme cela :</t>
-  </si>
-  <si>
     <t>私の絵　番号2　こうである</t>
   </si>
   <si>
@@ -265,18 +259,12 @@
     <t>at the age of six a magnificent career of painter</t>
   </si>
   <si>
-    <t>Moi être découragé par l’insuccès de mon dessin numéro un</t>
-  </si>
-  <si>
     <t>私　落胆させられる　失敗により　私の絵　1番の</t>
   </si>
   <si>
     <t>I be discouraged by the failure of my drawing number one</t>
   </si>
   <si>
-    <t>et de mon dessin numéro deux</t>
-  </si>
-  <si>
     <t>そして　私の絵　2番の</t>
   </si>
   <si>
@@ -366,18 +354,12 @@
     <t>Mwa réfléĉir bócu sür léz avãtür dë la jũgl"</t>
   </si>
   <si>
-    <t>et mwa dëmãdé a ö si mõ désẽ fèr pêr a ö</t>
-  </si>
-  <si>
     <t>Öz répõdr a mwa :</t>
   </si>
   <si>
     <t>« Purcwa ën chapeau fèr pêr ? »</t>
   </si>
   <si>
-    <t>Mõ désẽ (në) réprézãté pa ën chapeau</t>
-  </si>
-  <si>
     <t>Il réprézãté ën sèrpã bwa ci diyér ën éléfã</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
     <t>Öz avwar tujur bëzwẽ dë ècsplicasyõ</t>
   </si>
   <si>
-    <t>Mõ désẽ nüméró deux ètr còm sëla :</t>
-  </si>
-  <si>
     <t>Léz grãdz personnes cõsèyé a mwa</t>
   </si>
   <si>
@@ -408,12 +387,6 @@
     <t>a lë aj dë siz an ün caryèr mañific dë pẽtr</t>
   </si>
   <si>
-    <t>Mwa ètr décurayé par l’insuccès dë mõ désẽ nüméró ën</t>
-  </si>
-  <si>
-    <t>et dë mõ désẽ nüméró deux</t>
-  </si>
-  <si>
     <t>Léz grãdz personnes (në) cõprãdr jamèz ryẽ toutes sêlz</t>
   </si>
   <si>
@@ -440,10 +413,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>et moi demander à eux si mon dessin faire peur à eux</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Il ètr còm sëla :</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -453,6 +422,46 @@
   </si>
   <si>
     <t>Mwa mõtré ën chef dë êvr a mwa a lez grãdz pèrsòn</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>et moi demander à eux si le dessin à moi faire peur à eux</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>et mwa dëmãdé a ö si lo désẽ a mwa fèr pêr a ö</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Le dessin à moi ne représenter pas un chapeau</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Lo désẽ a mwa (në) réprézãté pa ën ĉapó</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Le dessin à moi numéro deux être comme cela :</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Lo désẽ a mwa nüméró deux ètr còm sëla :</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moi être découragé par le insuccès de le dessin à moi numéro un</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mwa ètr décurayé par lo ẽsüĉsès dë lo désẽ a mwa nüméró ën</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>et de le dessin à moi numéro deux</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>et dë lo désẽ a mwa nüméró dö</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -621,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,12 +808,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1058,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,9 +1069,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00BFE77-4F4E-4C8D-97B9-96FB6B7B5C35}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1471,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1513,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1541,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1555,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1583,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1594,24 +1594,24 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1653,7 +1653,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -1695,7 +1695,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
@@ -1720,216 +1720,217 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>